--- a/app/config/tables/colombia_search/forms/colombia_search/colombia_search.xlsx
+++ b/app/config/tables/colombia_search/forms/colombia_search/colombia_search.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="28800" windowHeight="16230" tabRatio="989" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="450" windowWidth="28800" windowHeight="16230" tabRatio="989" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="108">
   <si>
     <t>clause</t>
   </si>
@@ -387,6 +387,9 @@
   </si>
   <si>
     <t>Search Form</t>
+  </si>
+  <si>
+    <t>birthdate</t>
   </si>
 </sst>
 </file>
@@ -1015,15 +1018,15 @@
   <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="23.5" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="31" style="2" customWidth="1"/>
-    <col min="4" max="4" width="32.08203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="32.125" style="3" customWidth="1"/>
     <col min="5" max="5" width="37.5" style="4" customWidth="1"/>
     <col min="6" max="8" width="35.25" style="5" customWidth="1"/>
     <col min="9" max="9" width="44" style="5" customWidth="1"/>
@@ -1031,14 +1034,14 @@
     <col min="11" max="11" width="17.25" style="1" customWidth="1"/>
     <col min="12" max="12" width="12.75" style="1" customWidth="1"/>
     <col min="13" max="13" width="47.5" style="1" customWidth="1"/>
-    <col min="14" max="14" width="54.08203125" customWidth="1"/>
+    <col min="14" max="14" width="54.125" customWidth="1"/>
     <col min="15" max="15" width="46.25" customWidth="1"/>
-    <col min="16" max="16" width="24.6640625" customWidth="1"/>
+    <col min="16" max="16" width="24.625" customWidth="1"/>
     <col min="17" max="17" width="24.5" customWidth="1"/>
     <col min="18" max="18" width="37.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="23" customFormat="1" ht="47" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:18" s="23" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -1094,7 +1097,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="23" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:18" s="23" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="24" t="s">
         <v>12</v>
       </c>
@@ -1105,9 +1108,9 @@
       <c r="J2" s="24"/>
       <c r="K2" s="24"/>
     </row>
-    <row r="3" spans="1:18" s="23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:18" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C3" s="33" t="s">
-        <v>18</v>
+        <v>107</v>
       </c>
       <c r="D3" s="34" t="s">
         <v>19</v>
@@ -1129,7 +1132,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:18" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C4" s="33" t="s">
         <v>15</v>
       </c>
@@ -1159,7 +1162,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="23" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:18" s="23" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
         <v>14</v>
       </c>
@@ -1169,7 +1172,7 @@
       <c r="I5" s="41"/>
       <c r="K5" s="24"/>
     </row>
-    <row r="6" spans="1:18" s="23" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:18" s="23" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="24" t="s">
         <v>12</v>
       </c>
@@ -1180,7 +1183,7 @@
       <c r="I6" s="41"/>
       <c r="K6" s="24"/>
     </row>
-    <row r="7" spans="1:18" s="23" customFormat="1" ht="70.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:18" s="23" customFormat="1" ht="69.75" x14ac:dyDescent="0.35">
       <c r="C7" s="33" t="s">
         <v>13</v>
       </c>
@@ -1209,7 +1212,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="1:18" s="23" customFormat="1" ht="23.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:18" s="23" customFormat="1" ht="23.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="24" t="s">
         <v>14</v>
       </c>
@@ -1219,7 +1222,7 @@
       <c r="I8" s="41"/>
       <c r="K8" s="24"/>
     </row>
-    <row r="9" spans="1:18" s="23" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:18" s="23" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="24" t="s">
         <v>12</v>
       </c>
@@ -1231,7 +1234,7 @@
       <c r="I9" s="42"/>
       <c r="K9" s="24"/>
     </row>
-    <row r="10" spans="1:18" s="23" customFormat="1" ht="47" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:18" s="23" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
       <c r="B10" s="24"/>
       <c r="C10" s="33" t="s">
         <v>13</v>
@@ -1256,7 +1259,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:18" s="23" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:18" s="23" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="24" t="s">
         <v>14</v>
       </c>
@@ -1268,7 +1271,7 @@
       <c r="J11" s="24"/>
       <c r="K11" s="24"/>
     </row>
-    <row r="12" spans="1:18" s="23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:18" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B12" s="24"/>
       <c r="C12" s="39" t="s">
         <v>11</v>
@@ -1288,7 +1291,7 @@
       <c r="L12" s="24"/>
       <c r="M12" s="24"/>
     </row>
-    <row r="13" spans="1:18" s="23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:18" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="24"/>
       <c r="B13" s="24"/>
       <c r="C13" s="33" t="s">
@@ -1311,7 +1314,7 @@
       <c r="L13" s="24"/>
       <c r="M13" s="24"/>
     </row>
-    <row r="14" spans="1:18" s="23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:18" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="24"/>
       <c r="B14" s="24"/>
       <c r="C14" s="33"/>
@@ -1326,7 +1329,7 @@
       <c r="L14" s="24"/>
       <c r="M14" s="24"/>
     </row>
-    <row r="15" spans="1:18" s="23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:18" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="24"/>
       <c r="B15" s="24"/>
       <c r="C15" s="33"/>
@@ -1341,7 +1344,7 @@
       <c r="L15" s="24"/>
       <c r="M15" s="24"/>
     </row>
-    <row r="16" spans="1:18" s="23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:18" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="24"/>
       <c r="B16" s="24"/>
       <c r="C16" s="33"/>
@@ -1356,7 +1359,7 @@
       <c r="L16" s="24"/>
       <c r="M16" s="24"/>
     </row>
-    <row r="17" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="24"/>
       <c r="B17" s="24"/>
       <c r="C17" s="33"/>
@@ -1371,7 +1374,7 @@
       <c r="L17" s="24"/>
       <c r="M17" s="24"/>
     </row>
-    <row r="18" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="24"/>
       <c r="B18" s="24"/>
       <c r="C18" s="33"/>
@@ -1386,7 +1389,7 @@
       <c r="L18" s="24"/>
       <c r="M18" s="24"/>
     </row>
-    <row r="19" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="24"/>
       <c r="B19" s="24"/>
       <c r="C19" s="33"/>
@@ -1401,7 +1404,7 @@
       <c r="L19" s="24"/>
       <c r="M19" s="24"/>
     </row>
-    <row r="20" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="24"/>
       <c r="B20" s="24"/>
       <c r="C20" s="33"/>
@@ -1416,7 +1419,7 @@
       <c r="L20" s="24"/>
       <c r="M20" s="24"/>
     </row>
-    <row r="21" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="24"/>
       <c r="B21" s="24"/>
       <c r="C21" s="33"/>
@@ -1431,7 +1434,7 @@
       <c r="L21" s="24"/>
       <c r="M21" s="24"/>
     </row>
-    <row r="22" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="24"/>
       <c r="B22" s="24"/>
       <c r="C22" s="33"/>
@@ -1446,7 +1449,7 @@
       <c r="L22" s="24"/>
       <c r="M22" s="24"/>
     </row>
-    <row r="23" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="24"/>
       <c r="B23" s="24"/>
       <c r="C23" s="33"/>
@@ -1461,7 +1464,7 @@
       <c r="L23" s="24"/>
       <c r="M23" s="24"/>
     </row>
-    <row r="24" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="24"/>
       <c r="B24" s="24"/>
       <c r="C24" s="33"/>
@@ -1476,7 +1479,7 @@
       <c r="L24" s="24"/>
       <c r="M24" s="24"/>
     </row>
-    <row r="25" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="24"/>
       <c r="B25" s="24"/>
       <c r="C25" s="33"/>
@@ -1501,18 +1504,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="23.5" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="22.25" style="8" customWidth="1"/>
     <col min="2" max="2" width="23" style="9" customWidth="1"/>
     <col min="3" max="3" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>22</v>
       </c>
@@ -1523,7 +1526,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>25</v>
       </c>
@@ -1532,7 +1535,7 @@
       </c>
       <c r="C2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>26</v>
       </c>
@@ -1541,7 +1544,7 @@
       </c>
       <c r="C3"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>27</v>
       </c>
@@ -1550,7 +1553,7 @@
       </c>
       <c r="C4"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>28</v>
       </c>
@@ -1559,7 +1562,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>99</v>
       </c>
@@ -1570,7 +1573,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="33" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6" ht="33" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>104</v>
       </c>
@@ -1591,11 +1594,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="23.5" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="26.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="51.25" style="3" customWidth="1"/>
@@ -1603,7 +1606,7 @@
     <col min="4" max="9" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
@@ -1620,7 +1623,7 @@
       <c r="H1" s="13"/>
       <c r="I1" s="14"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
@@ -1635,7 +1638,7 @@
       <c r="H2" s="13"/>
       <c r="I2" s="14"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
@@ -1650,7 +1653,7 @@
       <c r="H3" s="13"/>
       <c r="I3" s="14"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -1667,7 +1670,7 @@
       <c r="H4" s="13"/>
       <c r="I4" s="14"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -1678,7 +1681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -1686,7 +1689,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I19"/>
     </row>
   </sheetData>
@@ -1703,16 +1706,16 @@
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.5" customWidth="1"/>
     <col min="2" max="2" width="29.5" customWidth="1"/>
     <col min="3" max="3" width="29" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
-    <col min="5" max="5" width="22.9140625" customWidth="1"/>
+    <col min="5" max="5" width="22.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>30</v>
       </c>
@@ -1729,7 +1732,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -1743,7 +1746,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -1771,12 +1774,12 @@
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="41.33203125" customWidth="1"/>
+    <col min="2" max="2" width="41.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>34</v>
       </c>
@@ -1784,7 +1787,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>71</v>
       </c>
@@ -1806,9 +1809,9 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>35</v>
       </c>
@@ -1825,7 +1828,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>38</v>
       </c>
@@ -1842,7 +1845,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>38</v>
       </c>
@@ -1873,7 +1876,7 @@
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.25" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
@@ -1883,7 +1886,7 @@
     <col min="6" max="6" width="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="77.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>45</v>
       </c>
@@ -1926,13 +1929,13 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.33203125" customWidth="1"/>
+    <col min="1" max="1" width="31.375" customWidth="1"/>
     <col min="2" max="2" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>54</v>
       </c>
@@ -1940,7 +1943,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>55</v>
       </c>
@@ -1948,7 +1951,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>57</v>
       </c>
@@ -1956,7 +1959,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>58</v>
       </c>
@@ -1964,7 +1967,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>59</v>
       </c>
@@ -1972,7 +1975,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>60</v>
       </c>
@@ -1980,7 +1983,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>61</v>
       </c>
@@ -1988,7 +1991,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>17</v>
       </c>
@@ -2010,14 +2013,14 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="24.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -2031,14 +2034,14 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>64</v>
       </c>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
     </row>
-    <row r="3" spans="1:4" ht="77.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>65</v>
       </c>
